--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1081.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1081.xlsx
@@ -354,7 +354,7 @@
         <v>2.294480399731218</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.987710119309007</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1081.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1081.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9789268289125158</v>
+        <v>1.190686464309692</v>
       </c>
       <c r="B1">
-        <v>2.294480399731218</v>
+        <v>2.473435401916504</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>1.987710119309007</v>
+        <v>2.278876066207886</v>
       </c>
       <c r="E1">
-        <v>1.303346576242731</v>
+        <v>1.179906010627747</v>
       </c>
     </row>
   </sheetData>
